--- a/Server/Statistic/Server Statistics.xlsx
+++ b/Server/Statistic/Server Statistics.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitCloneProject\Skin-Disease-Detection-and-Segmentation-HAM100000\Server\Statistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Server\Statistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BBF5C9-352D-4124-9CB8-80CB66D41403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D65FF-51C4-4F31-93D0-9FD3DC347B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Kênh Marketing</t>
   </si>
@@ -52,6 +62,39 @@
   </si>
   <si>
     <t>Clip Quảng cáo</t>
+  </si>
+  <si>
+    <t>Nhóm zalo lớp học Karatedo</t>
+  </si>
+  <si>
+    <t>Nhóm zalo lớp học Chạy</t>
+  </si>
+  <si>
+    <t>Nhóm zalo lớp học Tâm lý học ứng dụng</t>
+  </si>
+  <si>
+    <t>Nhóm zalo TechStart</t>
+  </si>
+  <si>
+    <t>Nhóm lớp đại học</t>
+  </si>
+  <si>
+    <t>Nhóm Chơi bóng rổ</t>
+  </si>
+  <si>
+    <t>Nhóm CLB Handmade</t>
+  </si>
+  <si>
+    <t>Nhóm Lab y Sinh</t>
+  </si>
+  <si>
+    <t>Nhóm bạn thân thiết đại học</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỉ lệ chuyển đổi </t>
   </si>
 </sst>
 </file>
@@ -75,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +126,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,57 +434,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="25.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B2" s="3">
+        <v>813</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>80</v>
+      <c r="I3" s="3">
+        <v>96</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="2">
+        <f>I12/B12*100</f>
+        <v>29.799196787148595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>195</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <f>4*12+5</f>
+        <v>53</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <f>7*12+2</f>
+        <v>86</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <f>SUM(B2:B11)</f>
+        <v>1245</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="3">
+        <f>SUM(I2:I11)</f>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/Server/Statistic/Server Statistics.xlsx
+++ b/Server/Statistic/Server Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skin-Disease-Detection-and-Segmentation-HAM100000\Server\Statistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49D65FF-51C4-4F31-93D0-9FD3DC347B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BAD458-5DCE-4A68-8E1E-E4EAA30D1BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Kênh Marketing</t>
   </si>
@@ -88,22 +88,33 @@
     <t>Nhóm Lab y Sinh</t>
   </si>
   <si>
-    <t>Nhóm bạn thân thiết đại học</t>
-  </si>
-  <si>
     <t>Tổng</t>
   </si>
   <si>
     <t xml:space="preserve">Tỉ lệ chuyển đổi </t>
+  </si>
+  <si>
+    <t>Server RTX 2060_1</t>
+  </si>
+  <si>
+    <t>TechStart chung kết</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -145,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -154,6 +165,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,25 +448,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="25.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="25.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -465,30 +479,30 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>813</v>
+        <v>1800</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="G2" s="3">
         <v>275</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -497,21 +511,21 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3">
-        <v>96</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2">
-        <f>I12/B12*100</f>
-        <v>29.799196787148595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="3">
+        <v>176</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4">
+        <f>G12/B2*100</f>
+        <v>37.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -520,10 +534,14 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -532,10 +550,10 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -544,10 +562,10 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -557,10 +575,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -569,10 +587,10 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -582,10 +600,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -594,40 +612,41 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <f>SUM(B2:B11)</f>
-        <v>1245</v>
+        <v>2426</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="3">
-        <f>SUM(I2:I11)</f>
-        <v>371</v>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <f>SUM(G2:G11)</f>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>